--- a/DDF/Phase2.1/TY_06/Trade Coverage/Invoice summary/Invoice Summary02.xlsx
+++ b/DDF/Phase2.1/TY_06/Trade Coverage/Invoice summary/Invoice Summary02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>TC_ID</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Milestone-2</t>
+  </si>
+  <si>
+    <t>Item disc</t>
+  </si>
+  <si>
+    <t>Category Disc</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +466,7 @@
     <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
@@ -470,9 +476,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>0</v>
       </c>
@@ -482,8 +493,14 @@
       <c r="E2" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,16 +516,28 @@
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
@@ -516,13 +545,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -536,7 +565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -550,7 +579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -559,7 +588,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -570,7 +599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -581,7 +610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -589,7 +618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -597,7 +626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -605,7 +634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -613,7 +642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
